--- a/ICMS_EP2/data/testdata.xlsx
+++ b/ICMS_EP2/data/testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>433938</t>
   </si>
@@ -93,6 +93,63 @@
   </si>
   <si>
     <t>433963</t>
+  </si>
+  <si>
+    <t>433964</t>
+  </si>
+  <si>
+    <t>433965</t>
+  </si>
+  <si>
+    <t>433966</t>
+  </si>
+  <si>
+    <t>433967</t>
+  </si>
+  <si>
+    <t>433968</t>
+  </si>
+  <si>
+    <t>433969</t>
+  </si>
+  <si>
+    <t>433970</t>
+  </si>
+  <si>
+    <t>433971</t>
+  </si>
+  <si>
+    <t>433972</t>
+  </si>
+  <si>
+    <t>433973</t>
+  </si>
+  <si>
+    <t>433974</t>
+  </si>
+  <si>
+    <t>433975</t>
+  </si>
+  <si>
+    <t>433976</t>
+  </si>
+  <si>
+    <t>433977</t>
+  </si>
+  <si>
+    <t>433978</t>
+  </si>
+  <si>
+    <t>433979</t>
+  </si>
+  <si>
+    <t>433980</t>
+  </si>
+  <si>
+    <t>433981</t>
+  </si>
+  <si>
+    <t>433982</t>
   </si>
 </sst>
 </file>
@@ -448,7 +505,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25"/>

--- a/ICMS_EP2/data/testdata.xlsx
+++ b/ICMS_EP2/data/testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>433938</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>433982</t>
+  </si>
+  <si>
+    <t>433986</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25"/>

--- a/ICMS_EP2/data/testdata.xlsx
+++ b/ICMS_EP2/data/testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>433938</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>433986</t>
+  </si>
+  <si>
+    <t>433988</t>
   </si>
 </sst>
 </file>
@@ -508,7 +511,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25"/>
